--- a/medicine/Handicap/Syndrome_MELAS/Syndrome_MELAS.xlsx
+++ b/medicine/Handicap/Syndrome_MELAS/Syndrome_MELAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome MELAS est une maladie mitochondriale qui débute typiquement dans l'enfance se manifestant essentiellement par un syndrome neurologique. Le terme « MELAS » est une abréviation de l'anglais « mitochondrial encephalopathy with lactic acidosis and stroke-like episodes » : encéphalopathie mitochondriale, acidose lactique et épisodes déficitaires neurologiques.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement précoce psychomoteur est normal mais l'enfant est habituellement de petite taille. L'âge de début des symptômes est entre deux et dix ans, comprenant habituellement des crises d'épilepsie tonico-clonique, des vomissements, des céphalées et une anorexie. Une fatigabilité excessive à l'exercice ou des faiblesses musculaires peuvent aussi être les premières manifestations. Il peut exister une surdité.
-Les convulsions sont souvent associées à des hémiparésies transitoires, des déficits moteurs ou des épisodes de cécité corticale. Les déficits moteurs peuvent être associés à des troubles de la conscience et sont souvent récurrents. L'effet cumulatif de ces épisodes de déficit moteur aboutit graduellement à une perte de l'autonomie, une perte de la vision et une démence au début de l'âge adulte. La surdité est habituelle. Il peut exister un diabète[1].
-Il existe une atteinte cardiaque dans un tiers des cas[2] avec des présentations variables[3].
-Le tableau est toutefois extrêmement variable pour la même mutation[1].
+Les convulsions sont souvent associées à des hémiparésies transitoires, des déficits moteurs ou des épisodes de cécité corticale. Les déficits moteurs peuvent être associés à des troubles de la conscience et sont souvent récurrents. L'effet cumulatif de ces épisodes de déficit moteur aboutit graduellement à une perte de l'autonomie, une perte de la vision et une démence au début de l'âge adulte. La surdité est habituelle. Il peut exister un diabète.
+Il existe une atteinte cardiaque dans un tiers des cas avec des présentations variables.
+Le tableau est toutefois extrêmement variable pour la même mutation.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Myopathie mitochondriale - encéphalopathie - acidose lactique</t>
         </is>
@@ -575,10 +591,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome est causé par des mutations de l'ADN mitochondrial. Plusieurs gènes peuvent être en cause dont l' ARNt-Leucine. la mutation la plus fréquemment associée est la mutation A3243G dans l'ARNtLeu de l'ADN mitochondrial.
-Les manifestations sont variables suivant le nombre de mitochondries atteint[4].
+Les manifestations sont variables suivant le nombre de mitochondries atteint.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>les lésions cérébrales ne sont pas de topographie vasculaire et sont plus souvent postérieures qu'antérieures[5].
-Diagnostic différentiel</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">les lésions cérébrales ne sont pas de topographie vasculaire et sont plus souvent postérieures qu'antérieures.
+</t>
         </is>
       </c>
     </row>
@@ -638,9 +658,11 @@
           <t>Traitement et prise en charge</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas d'anesthésie du patient, des précautions particulières sont à pendre car les myopathies mitochondriales induisent souvent une sensibilité accrue aux myorelaxants utilisés par les anesthésistes[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas d'anesthésie du patient, des précautions particulières sont à pendre car les myopathies mitochondriales induisent souvent une sensibilité accrue aux myorelaxants utilisés par les anesthésistes.
 </t>
         </is>
       </c>
@@ -669,9 +691,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est uniquement symptomatique. Beaucoup de patients prennent des suppléments nutritionnels pour tenter d'augmenter le métabolisme (Riboflavine, L-carnitine, coenzyme Q10) mais le niveau de preuve de l'efficacité reste faible[7]. L'arginine semble toutefois améliorer les déficits neurologiques[8]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement symptomatique. Beaucoup de patients prennent des suppléments nutritionnels pour tenter d'augmenter le métabolisme (Riboflavine, L-carnitine, coenzyme Q10) mais le niveau de preuve de l'efficacité reste faible. L'arginine semble toutefois améliorer les déficits neurologiques. 
 </t>
         </is>
       </c>
@@ -702,8 +726,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode  de transmission
-Hérédité mitochondriale, rares mutations de novo, le diagnostic pré natal est possible mais difficile  du fait de l'hétéroplasmie. La mutation 3243G&gt;A est la plus fréquente(80%)[9].
+          <t>Mode  de transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hérédité mitochondriale, rares mutations de novo, le diagnostic pré natal est possible mais difficile  du fait de l'hétéroplasmie. La mutation 3243G&gt;A est la plus fréquente(80%).
 La transmission peut être maternelle (par les mitochondries maternelles) mais aussi de type autosomique, le plus souvent récessive par l'ADN autosomale codant pour des protéines mitochodriales.
 </t>
         </is>
